--- a/imageCreationExcel/back/115/115_10.xlsx
+++ b/imageCreationExcel/back/115/115_10.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.23197497473331</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.162791468357113</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.571941970399916</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_8_brightness11.232_contrast1.163_sharpness0.572.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +528,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6430811241417106</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.3809802921256576</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>25.35958967038503</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_1_gamma0.643_sharpness0.381_equalization25.36.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +579,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.19564066796366</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.4998115501033373</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>27.50374406753923</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_3_contrast1.196_sharpness0.5_equalization27.504.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8150122515257344</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6450851202629555</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7.613952848134362</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_C_contrast0.815_sharpness0.645_equalization7.614.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.130916693127903</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.3624677396881364</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>27.22287287238767</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_8_contrast1.131_sharpness0.362_equalization27.223.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9463805591483125</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.074196994330701</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.7841553051791468</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_C_contrast0.946_gamma1.074_sharpness0.784.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,15 +747,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.063889480166868</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9411465472991389</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>29.80328124829646</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_2_contrast1.064_gamma0.941_equalization29.803.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -780,24 +780,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9954205255476072</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7106892819812072</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>29.2914419129667</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_P_gamma0.995_sharpness0.711_equalization29.291.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.556714724655</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9191651169176679</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.5555135546875138</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_B_brightness12.557_contrast0.919_gamma0.556.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9180213669799685</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.6055080553841109</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>11.9936726051806</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_3_gamma0.918_sharpness0.606_equalization11.994.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.067606531228325</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5026097570959812</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>29.60426390834915</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_P_gamma1.068_sharpness0.503_equalization29.604.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.075439530805299</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7571076663517906</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>13.16369477877015</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_B_contrast1.075_sharpness0.757_equalization13.164.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21.96851318374757</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.002744794886943</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7340908193665605</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_2_brightness21.969_contrast1.003_sharpness0.734.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9498093824899649</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9978494498781103</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.519138606574759</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_9_contrast0.95_gamma0.998_sharpness0.519.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1083,15 +1083,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9520126576486312</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.817618857777442</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>28.07696360934828</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_0_contrast0.952_gamma0.818_equalization28.077.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.038031871222549</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.061127093063399</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>27.93922038133292</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_P_contrast1.038_gamma1.061_equalization27.939.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.392661970282524</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.167108650879754</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8222510863312961</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_T_brightness6.393_contrast1.167_sharpness0.822.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15.95561754344017</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8556825150710078</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.6757437127896291</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_2_brightness15.956_contrast0.856_gamma0.676.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.5852787389855805</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.6455136922358167</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>31.63320796839187</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_T_gamma0.585_sharpness0.646_equalization31.633.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1289,34 +1289,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.055742344224074</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.744454650939097</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>30.37486626092022</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_S_gamma1.056_sharpness0.744_equalization30.375.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.035359596070348</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9313484732675086</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.7710317795886186</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_9_contrast1.035_gamma0.931_sharpness0.771.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,15 +1377,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>27.6880035838833</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.129735338750068</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.7702253517531483</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_T_brightness27.688_contrast1.13_sharpness0.77.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8445380847660506</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.6441534785197838</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>12.61685778514548</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_C_contrast0.845_sharpness0.644_equalization12.617.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.082102596513572</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8637993468544795</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.30210788558631</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_P_contrast1.082_sharpness0.864_equalization11.302.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.7498956751121719</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.4302613784311223</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>18.20922565026074</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_B_gamma0.75_sharpness0.43_equalization18.209.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9202806980135774</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.6826474597532947</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.3712143566123116</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_P_contrast0.92_gamma0.683_sharpness0.371.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,16 +1578,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.7879711373144862</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.4044002726992969</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>21.90217634488977</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_0_gamma0.788_sharpness0.404_equalization21.902.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12.17338212333219</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9101197912097196</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.1514077517164267</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_7_brightness12.173_contrast0.91_sharpness0.151.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9644935449035054</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5772255763426098</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>15.37471789362955</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_8_gamma0.964_sharpness0.577_equalization15.375.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7.281585791259547</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.120291273972456</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.6838669687833958</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_I_brightness7.282_contrast1.12_sharpness0.684.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>17.423929862081</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.035529600174758</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.8568583755284613</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_1_brightness17.424_contrast1.036_gamma0.857.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8617122366254751</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6853642442898078</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.6507228196932803</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_P_contrast0.862_gamma0.685_sharpness0.651.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9835310695072154</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.06261851704363569</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>21.78466771781142</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_E_contrast0.984_sharpness0.063_equalization21.785.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,24 +1872,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.22403637365907</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8239928177853432</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.6529378916324117</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_C_brightness2.224_contrast0.824_sharpness0.653.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1919,11 +1919,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8017861155277358</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.557331092123615</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.5540742225425536</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_0_contrast0.802_gamma0.557_sharpness0.554.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.078431133326783</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.7046881431878447</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.9050725498368044</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_2_contrast1.078_gamma0.705_sharpness0.905.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5.132995522846729</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.155059916671104</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.9710100784613599</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_I_brightness5.133_contrast1.155_sharpness0.971.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9275834965564509</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5928971993869716</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5.870700566429285</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_B_contrast0.928_sharpness0.593_equalization5.871.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>14.19642506978063</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9014111247849871</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.1277095862186077</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_7_brightness14.196_contrast0.901_sharpness0.128.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,30 +2133,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17.14710755044787</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.8417400353388056</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.6415304022416032</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_3_brightness17.147_contrast0.842_gamma0.642.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,16 +2166,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9285714319882343</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5932380572589098</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.3303599476051157</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_3_contrast0.929_gamma0.593_sharpness0.33.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9078516596488311</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5195035861526127</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.5313344957385991</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_B_contrast0.908_gamma0.52_sharpness0.531.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2255,34 +2255,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.08210588586981</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.7063143207670101</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.9181517178668814</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_contrast1.082_gamma0.706_sharpness0.918.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>22.44950949474664</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.7204792485044391</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.02711700411176715</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_brightness22.45_gamma0.72_sharpness0.027.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.163856511976741</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5103888131263089</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>20.05844013276662</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_B_contrast1.164_gamma0.51_equalization20.058.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8151288915756763</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.611948043160403</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>9.633688215707938</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_9_contrast0.815_sharpness0.612_equalization9.634.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.197219013756754</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8960441530706589</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.9670613068067742</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_contrast1.197_gamma0.896_sharpness0.967.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7.04259556597902</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.083100177594993</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.9408960950594</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_S_brightness7.043_contrast1.083_gamma0.941.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
